--- a/data/trans_bre/P25_7-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_7-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,66</t>
+          <t>26,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,82</t>
+          <t>15,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,72</t>
+          <t>14,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,36</t>
+          <t>19,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>61,2%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>78,3%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,68%</t>
+          <t>106,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>49,0%</t>
+          <t>57,83%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>43,82%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>66,88%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,16; 27,97</t>
+          <t>14,67; 37,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,43; 24,73</t>
+          <t>6,52; 24,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 19,94</t>
+          <t>5,58; 21,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,91; 23,19</t>
+          <t>7,93; 34,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,71; 125,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,91; 131,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,01; 70,97</t>
+          <t>48,57; 211,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,76; 84,88</t>
+          <t>20,17; 106,01</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15,22; 80,44</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>21,25; 175,14</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,12 +792,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,92</t>
+          <t>19,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,36</t>
+          <t>17,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -735,27 +807,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,07</t>
+          <t>15,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>149,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>114,84%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>122,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>64,11%</t>
+          <t>113,44%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>91,93%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>66,12%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,94; 26,28</t>
+          <t>13,28; 26,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 20,99</t>
+          <t>11,51; 22,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,03; 20,49</t>
+          <t>9,91; 21,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,82; 22,07</t>
+          <t>5,36; 21,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>94,08; 222,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,06; 173,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,64; 141,55</t>
+          <t>69,74; 199,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,36; 101,59</t>
+          <t>60,86; 176,86</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>48,56; 152,5</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16,65; 118,72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>13,19%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>13,72%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17,32%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 12,42</t>
+          <t>-3,35; 12,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 8,37</t>
+          <t>-3,26; 8,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 8,81</t>
+          <t>-2,61; 7,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 11,79</t>
+          <t>-5,27; 9,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 86,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 55,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 49,21</t>
+          <t>-12,9; 70,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 91,53</t>
+          <t>-15,52; 53,13</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-10,63; 44,28</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-20,35; 59,12</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,42</t>
+          <t>17,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,82</t>
+          <t>14,73</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>11,64</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>90,1%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>73,97%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>52,84%</t>
+          <t>117,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>52,52%</t>
+          <t>118,94%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>51,01%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,11; 20,51</t>
+          <t>12,15; 23,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,75; 16,25</t>
+          <t>8,61; 20,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,65; 14,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,53; 17,69</t>
+          <t>4,31; 18,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>57,23; 124,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,21; 103,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,5; 74,92</t>
+          <t>66,74; 192,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,91; 77,93</t>
+          <t>55,05; 213,81</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15,02; 98,07</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16,79</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13,07</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11,75</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12,35</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>96,11%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>75,44%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>55,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>53,48%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13,16; 20,48</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9,6; 16,21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7,79; 15,07</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7,36; 16,32</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>67,94; 131,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>51,49; 103,26</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>33,69; 76,69</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>29,26; 79,69</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_7-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_7-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>26,32</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>15,71</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>14,2</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>19,47</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>106,9%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>57,83%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>43,82%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>66,88%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>25.38595232166371</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>15.95783812221838</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>14.46339641236233</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>18.65965439199482</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>1.003892442452655</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.5863516788678363</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.4452838859500262</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.6379249588130488</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>14,67; 37,96</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>6,52; 24,06</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5,58; 21,84</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>7,93; 34,29</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>48,57; 211,0</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>20,17; 106,01</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>15,22; 80,44</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>21,25; 175,14</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>13.66873980193058</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>6.591187168053953</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>5.768731147756266</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>7.145949122272182</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>0.427360482065699</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.2077336661589991</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.1538031827974725</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.1778054489598564</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>37.26651032991496</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>24.51049021276607</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>22.02047924878681</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>33.30586055777251</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>2.03170169388844</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.063565127324493</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.8046098377804046</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.673486855810302</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>19,86</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>17,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>15,6</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>15,05</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>122,66%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>113,44%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>91,93%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>66,12%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>13,28; 26,16</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>11,51; 22,9</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>9,91; 21,28</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>5,36; 21,97</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>69,74; 199,2</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>60,86; 176,86</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>48,56; 152,5</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>16,65; 118,72</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>18.59808186324645</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>17.67126442971679</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>15.53755410247576</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>14.85456280564008</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>1.136689680636066</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.176481290714034</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.9200279511749018</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.650298545756954</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,4</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,57</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>25,49%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>13,19%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>13,72%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>17,32%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>12.22840938038102</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>11.53669114575578</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>9.772051929513752</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>5.56234286083009</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>0.6350900204444727</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.6093020065710857</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.4720594758113696</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.1648029577021641</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,35; 12,36</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,26; 8,1</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 7,85</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,27; 9,89</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-12,9; 70,83</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-15,52; 53,13</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-10,63; 44,28</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-20,35; 59,12</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>25.14287153244633</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>22.99969677716344</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>21.19579798669225</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>21.98136655398882</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>1.892053139821361</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.804345969632724</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.535864516982964</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.205507958989312</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>17,4</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>14,73</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,64</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>117,52%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>118,94%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>51,01%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>6.160161850692564</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.578156814500732</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.669729669681822</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.558976642806694</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.2958999406725936</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1361389586214017</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1297669924362157</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.1733422337359689</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>12,15; 23,09</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>8,61; 20,51</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,31; 18,79</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>66,74; 192,26</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>55,05; 213,81</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>15,02; 98,07</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.606221844865187</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.383062334158588</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.6555395839938</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.206541228093855</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.1186150606651531</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1648926660939981</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1087486687396786</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.205116286007452</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.57669127722838</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.555958093841678</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.796883088797402</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.833893306534232</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.8014254082708221</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.5433158474987501</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.438300573378085</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.5939910553488869</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>16,79</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>13,07</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>11,75</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>12,35</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>96,11%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>75,44%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>55,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>53,48%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>13,16; 20,48</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>9,6; 16,21</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>7,79; 15,07</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>7,36; 16,32</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>67,94; 131,12</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>51,49; 103,26</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>33,69; 76,69</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>29,26; 79,69</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>15.68024085835026</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>12.61452333136246</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>11.82866439829308</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>12.38050374034614</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.8059796731392336</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.672005593697191</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.5546341717843112</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.5325572121987672</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>10.47091045866791</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>8.85988041170811</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>8.024515125525587</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>6.763198272308752</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>0.4801571019959565</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.411652955608876</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.3381775804490414</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.2488247742444767</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>20.15134985451042</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>16.62462526192599</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>15.06133995712325</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>17.25803667404345</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>1.200940871616692</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9892990146253181</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.7699689083739474</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.8550839530941363</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
